--- a/Projects/202102_PL/3_IRB/IRB_附錄.xlsx
+++ b/Projects/202102_PL/3_IRB/IRB_附錄.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\R123\LAB_metaprojects\Projects\202102_PL\3_IRB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\R project\Projects\Projects\202102_PL\3_IRB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F868507B-C13E-4A6B-A555-2D23B63D6FC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176"/>
   </bookViews>
   <sheets>
     <sheet name="附錄1" sheetId="1" r:id="rId1"/>
-    <sheet name="表1" sheetId="2" r:id="rId2"/>
-    <sheet name="表2" sheetId="3" r:id="rId3"/>
+    <sheet name="附錄1-1" sheetId="2" r:id="rId2"/>
+    <sheet name="附錄1-2" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -153,9 +152,6 @@
   </si>
   <si>
     <t>你想要取得原始論文全文嗎？</t>
-  </si>
-  <si>
-    <t>Test（詳見表2）</t>
   </si>
   <si>
     <t>梁直青、郭芳妤（2018）的研究發現，告知消費者「要等幾分鐘」，可以增加消費者等候的意願。</t>
@@ -1871,22 +1867,26 @@
     <t>&lt;span style='font-size:18px;'&gt;&lt;b&gt;背景&lt;/b&gt;&lt;/span&gt;&lt;br&gt;&lt;br&gt;&lt;span style='font-size:14px;'&gt;當我們耗費長時間處理一件棘手的案件，或做出一項相當艱困的決策時，往往會在事後經歷自我資源耗竭（ego depletion）的窘境，而在此情況下的人們常會更難以控制自己的各種行為，例如當你加班忙碌了一整天總算回到家中，&lt;/span&gt;&lt;br&gt;&lt;br&gt;&lt;span style='font-size:14px;'&gt;看到誘人的甜食雖然知道深夜吃甜食容易導致肥胖，卻會因為工作損耗自我資源而較難以壓抑想吃甜食的慾望。&lt;/span&gt;&lt;br&gt;&lt;br&gt;&lt;span style='font-size:14px;'&gt;有時候儘管我們處於自我資源耗竭的狀態下，但還是會有維持正向自我評價的需求，換句話說，即便我們因其他事情面臨自我資源耗竭，然而我們仍不希望自己在其他能力或表現上接收到負向的評價。&lt;/span&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;span style='font-size:18px;'&gt;&lt;b&gt;為什麼進行這項研究&lt;/b&gt;&lt;/span&gt;&lt;br&gt;&lt;br&gt;&lt;span style='font-size:14px;'&gt;因此，國立政治大學心理學系孫蒨如教授等人，為了解個體維持正向自我評價的需求在自我資源耗竭時所扮演的角色，進行了一系列的研究。過去研究（Berglas &amp; Jones, 1978）曾指出，當個體面臨可預見的失敗時，會採取一種故&lt;/span&gt;&lt;br&gt;&lt;br&gt;&lt;span style='font-size:14px;'&gt;意陷自己不利於成功情境下的行動，藉此將失敗歸咎於設限行為（如：練習不足、喝酒等）以避免失敗威脅到自我評價的可能。&lt;/span&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;span style='font-size:18px;'&gt;&lt;b&gt;研究人員做了什麼，發現了什麼？&lt;/b&gt;&lt;/span&gt;&lt;br&gt;&lt;br&gt;&lt;span style='font-size:14px;'&gt;而孫蒨如教授等人（2017）則在研究中發現，當個體受到威脅、自我設限程度高時，即便面臨自我資源耗竭的情境，仍會努力從事較多會影響自身表現的作業做為可能的藉口，來維持本身的正向自我評價；相對的，對於自我設限&lt;/span&gt;&lt;br&gt;&lt;br&gt;&lt;span style='font-size:14px;'&gt;程度低的個體而言，資源耗竭與否並無影響，也並未發現他們選擇花費更多心力來「擴大」自我評價。&lt;/span&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;span style='font-size:18px;'&gt;&lt;b&gt;這些發現意味著什麼&lt;/b&gt;&lt;/span&gt;&lt;br&gt;&lt;br&gt;&lt;span style='font-size:14px;'&gt;說明事實上，即便處於資源耗竭的情境中，個體也寧願調動剩餘的稀少資源來維持正向的自我評價。&lt;/span&gt;</t>
   </si>
   <si>
-    <t>text1（詳見表1）</t>
+    <t>text1（詳見附錄1-1）</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>text2（詳見表1）</t>
+    <t>text2（詳見附錄1-1）</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>text3（詳見表1）</t>
+    <t>text3（詳見附錄1-1）</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test（詳見附錄1-2）</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -2235,14 +2235,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:C1007"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
-      <selection activeCell="B89" sqref="B89"/>
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2273,7 +2273,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -2421,7 +2421,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>25</v>
@@ -2498,10 +2498,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C23" s="17" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2575,10 +2575,10 @@
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C30" s="17" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="15" x14ac:dyDescent="0.3">
@@ -2652,10 +2652,10 @@
         <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="C37" s="3" t="s">
         <v>38</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="15" x14ac:dyDescent="0.3">
@@ -2663,10 +2663,10 @@
         <v>37</v>
       </c>
       <c r="B38" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C38" s="3" t="s">
         <v>40</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="15" x14ac:dyDescent="0.3">
@@ -2674,10 +2674,10 @@
         <v>38</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="15" x14ac:dyDescent="0.3">
@@ -2685,10 +2685,10 @@
         <v>39</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="15" x14ac:dyDescent="0.3">
@@ -2696,10 +2696,10 @@
         <v>40</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="15" x14ac:dyDescent="0.3">
@@ -2707,10 +2707,10 @@
         <v>41</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="15" x14ac:dyDescent="0.3">
@@ -2718,10 +2718,10 @@
         <v>42</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="15" x14ac:dyDescent="0.3">
@@ -2729,10 +2729,10 @@
         <v>43</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="15" x14ac:dyDescent="0.3">
@@ -2740,10 +2740,10 @@
         <v>44</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="15" x14ac:dyDescent="0.3">
@@ -2751,10 +2751,10 @@
         <v>45</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="15" x14ac:dyDescent="0.3">
@@ -2762,10 +2762,10 @@
         <v>46</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="15" x14ac:dyDescent="0.3">
@@ -2773,10 +2773,10 @@
         <v>47</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="15" x14ac:dyDescent="0.3">
@@ -2784,10 +2784,10 @@
         <v>48</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="15" x14ac:dyDescent="0.3">
@@ -2795,10 +2795,10 @@
         <v>49</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="15" x14ac:dyDescent="0.3">
@@ -2806,10 +2806,10 @@
         <v>50</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="15" x14ac:dyDescent="0.3">
@@ -2817,10 +2817,10 @@
         <v>51</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="15" x14ac:dyDescent="0.3">
@@ -2828,10 +2828,10 @@
         <v>52</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="15" x14ac:dyDescent="0.3">
@@ -2839,10 +2839,10 @@
         <v>53</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="15" x14ac:dyDescent="0.3">
@@ -2850,10 +2850,10 @@
         <v>54</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="15" x14ac:dyDescent="0.3">
@@ -2861,10 +2861,10 @@
         <v>55</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="15" x14ac:dyDescent="0.3">
@@ -2872,10 +2872,10 @@
         <v>56</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="15" x14ac:dyDescent="0.3">
@@ -2883,10 +2883,10 @@
         <v>57</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="15" x14ac:dyDescent="0.3">
@@ -2894,10 +2894,10 @@
         <v>58</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="15" x14ac:dyDescent="0.3">
@@ -2905,10 +2905,10 @@
         <v>59</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="15" x14ac:dyDescent="0.3">
@@ -2916,10 +2916,10 @@
         <v>60</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="15" x14ac:dyDescent="0.3">
@@ -2927,10 +2927,10 @@
         <v>61</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="15" x14ac:dyDescent="0.3">
@@ -2938,10 +2938,10 @@
         <v>62</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="15" x14ac:dyDescent="0.3">
@@ -2949,10 +2949,10 @@
         <v>63</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="15" x14ac:dyDescent="0.3">
@@ -2960,10 +2960,10 @@
         <v>64</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="15" x14ac:dyDescent="0.3">
@@ -2971,10 +2971,10 @@
         <v>65</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="15" x14ac:dyDescent="0.3">
@@ -2982,10 +2982,10 @@
         <v>66</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="15" x14ac:dyDescent="0.3">
@@ -2993,10 +2993,10 @@
         <v>67</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="15" x14ac:dyDescent="0.3">
@@ -3004,10 +3004,10 @@
         <v>68</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="15" x14ac:dyDescent="0.3">
@@ -3015,10 +3015,10 @@
         <v>69</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="15" x14ac:dyDescent="0.3">
@@ -3026,10 +3026,10 @@
         <v>70</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="15" x14ac:dyDescent="0.3">
@@ -3037,10 +3037,10 @@
         <v>71</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="15" x14ac:dyDescent="0.3">
@@ -3048,10 +3048,10 @@
         <v>72</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="15" x14ac:dyDescent="0.3">
@@ -3059,10 +3059,10 @@
         <v>73</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="15" x14ac:dyDescent="0.3">
@@ -3070,10 +3070,10 @@
         <v>74</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="15" x14ac:dyDescent="0.3">
@@ -3081,10 +3081,10 @@
         <v>75</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="15" x14ac:dyDescent="0.3">
@@ -3092,10 +3092,10 @@
         <v>76</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="15" x14ac:dyDescent="0.3">
@@ -3103,10 +3103,10 @@
         <v>77</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="15" x14ac:dyDescent="0.3">
@@ -3114,10 +3114,10 @@
         <v>78</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="15" x14ac:dyDescent="0.3">
@@ -3125,10 +3125,10 @@
         <v>79</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="15" x14ac:dyDescent="0.3">
@@ -3136,10 +3136,10 @@
         <v>80</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="15" x14ac:dyDescent="0.3">
@@ -3147,10 +3147,10 @@
         <v>81</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="15" x14ac:dyDescent="0.3">
@@ -3158,10 +3158,10 @@
         <v>82</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="15" x14ac:dyDescent="0.3">
@@ -3169,10 +3169,10 @@
         <v>83</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
@@ -7068,18 +7068,19 @@
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:AA1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -7094,7 +7095,7 @@
       <c r="A1" s="13"/>
       <c r="B1" s="13"/>
       <c r="C1" s="13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D1" s="13"/>
       <c r="E1" s="7"/>
@@ -7123,16 +7124,16 @@
     </row>
     <row r="2" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="B2" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="C2" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="D2" s="13" t="s">
         <v>90</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>91</v>
       </c>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
@@ -7160,16 +7161,16 @@
     </row>
     <row r="3" spans="1:27" ht="158.4" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="B3" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="C3" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="D3" s="15" t="s">
         <v>94</v>
-      </c>
-      <c r="D3" s="15" t="s">
-        <v>95</v>
       </c>
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
@@ -7197,16 +7198,16 @@
     </row>
     <row r="4" spans="1:27" ht="285" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
@@ -7234,16 +7235,16 @@
     </row>
     <row r="5" spans="1:27" ht="72" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
@@ -7271,16 +7272,16 @@
     </row>
     <row r="6" spans="1:27" ht="158.4" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="C6" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="B6" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="C6" s="13" t="s">
+      <c r="D6" s="15" t="s">
         <v>99</v>
-      </c>
-      <c r="D6" s="15" t="s">
-        <v>100</v>
       </c>
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
@@ -7308,16 +7309,16 @@
     </row>
     <row r="7" spans="1:27" ht="273.60000000000002" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
@@ -7345,16 +7346,16 @@
     </row>
     <row r="8" spans="1:27" ht="129.6" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
@@ -7382,16 +7383,16 @@
     </row>
     <row r="9" spans="1:27" ht="144" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="C9" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="B9" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="C9" s="13" t="s">
+      <c r="D9" s="15" t="s">
         <v>104</v>
-      </c>
-      <c r="D9" s="15" t="s">
-        <v>105</v>
       </c>
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
@@ -7419,16 +7420,16 @@
     </row>
     <row r="10" spans="1:27" ht="273.60000000000002" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
@@ -7456,16 +7457,16 @@
     </row>
     <row r="11" spans="1:27" ht="115.2" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
@@ -7493,16 +7494,16 @@
     </row>
     <row r="12" spans="1:27" ht="144" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="C12" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="B12" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="C12" s="13" t="s">
+      <c r="D12" s="15" t="s">
         <v>109</v>
-      </c>
-      <c r="D12" s="15" t="s">
-        <v>110</v>
       </c>
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
@@ -7530,16 +7531,16 @@
     </row>
     <row r="13" spans="1:27" ht="230.4" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
@@ -7567,16 +7568,16 @@
     </row>
     <row r="14" spans="1:27" ht="72" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
@@ -7604,16 +7605,16 @@
     </row>
     <row r="15" spans="1:27" ht="172.8" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="C15" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="B15" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="C15" s="13" t="s">
+      <c r="D15" s="15" t="s">
         <v>114</v>
-      </c>
-      <c r="D15" s="15" t="s">
-        <v>115</v>
       </c>
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
@@ -7641,16 +7642,16 @@
     </row>
     <row r="16" spans="1:27" ht="302.39999999999998" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D16" s="15" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
@@ -7678,16 +7679,16 @@
     </row>
     <row r="17" spans="1:27" ht="115.2" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D17" s="15" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
@@ -7715,16 +7716,16 @@
     </row>
     <row r="18" spans="1:27" ht="172.8" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="C18" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="B18" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="C18" s="13" t="s">
+      <c r="D18" s="15" t="s">
         <v>119</v>
-      </c>
-      <c r="D18" s="15" t="s">
-        <v>120</v>
       </c>
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
@@ -7752,16 +7753,16 @@
     </row>
     <row r="19" spans="1:27" ht="288" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D19" s="15" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
@@ -7789,16 +7790,16 @@
     </row>
     <row r="20" spans="1:27" ht="100.8" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D20" s="15" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
@@ -7826,16 +7827,16 @@
     </row>
     <row r="21" spans="1:27" ht="115.2" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="C21" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="B21" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="C21" s="13" t="s">
+      <c r="D21" s="15" t="s">
         <v>124</v>
-      </c>
-      <c r="D21" s="15" t="s">
-        <v>125</v>
       </c>
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
@@ -7863,16 +7864,16 @@
     </row>
     <row r="22" spans="1:27" ht="244.8" x14ac:dyDescent="0.25">
       <c r="A22" s="14" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D22" s="15" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E22" s="7"/>
       <c r="F22" s="7"/>
@@ -7900,16 +7901,16 @@
     </row>
     <row r="23" spans="1:27" ht="100.8" x14ac:dyDescent="0.25">
       <c r="A23" s="14" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D23" s="15" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E23" s="7"/>
       <c r="F23" s="7"/>
@@ -7937,16 +7938,16 @@
     </row>
     <row r="24" spans="1:27" ht="144" x14ac:dyDescent="0.25">
       <c r="A24" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="B24" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="C24" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="B24" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="C24" s="13" t="s">
+      <c r="D24" s="15" t="s">
         <v>129</v>
-      </c>
-      <c r="D24" s="15" t="s">
-        <v>130</v>
       </c>
       <c r="E24" s="7"/>
       <c r="F24" s="7"/>
@@ -7974,16 +7975,16 @@
     </row>
     <row r="25" spans="1:27" ht="273.60000000000002" x14ac:dyDescent="0.25">
       <c r="A25" s="14" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D25" s="15" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E25" s="7"/>
       <c r="F25" s="7"/>
@@ -8011,16 +8012,16 @@
     </row>
     <row r="26" spans="1:27" ht="100.8" x14ac:dyDescent="0.25">
       <c r="A26" s="14" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D26" s="15" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E26" s="7"/>
       <c r="F26" s="7"/>
@@ -8048,16 +8049,16 @@
     </row>
     <row r="27" spans="1:27" ht="244.8" x14ac:dyDescent="0.25">
       <c r="A27" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="B27" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="C27" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="B27" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="C27" s="13" t="s">
+      <c r="D27" s="15" t="s">
         <v>134</v>
-      </c>
-      <c r="D27" s="15" t="s">
-        <v>135</v>
       </c>
       <c r="E27" s="7"/>
       <c r="F27" s="7"/>
@@ -8085,16 +8086,16 @@
     </row>
     <row r="28" spans="1:27" ht="360" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B28" s="13" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D28" s="15" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E28" s="7"/>
       <c r="F28" s="7"/>
@@ -8122,16 +8123,16 @@
     </row>
     <row r="29" spans="1:27" ht="100.8" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B29" s="13" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D29" s="15" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E29" s="7"/>
       <c r="F29" s="7"/>
@@ -8159,16 +8160,16 @@
     </row>
     <row r="30" spans="1:27" ht="129.6" x14ac:dyDescent="0.25">
       <c r="A30" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="B30" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="C30" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="B30" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="C30" s="13" t="s">
+      <c r="D30" s="15" t="s">
         <v>139</v>
-      </c>
-      <c r="D30" s="15" t="s">
-        <v>140</v>
       </c>
       <c r="E30" s="7"/>
       <c r="F30" s="7"/>
@@ -8196,16 +8197,16 @@
     </row>
     <row r="31" spans="1:27" ht="259.2" x14ac:dyDescent="0.25">
       <c r="A31" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B31" s="13" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D31" s="16" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E31" s="7"/>
       <c r="F31" s="7"/>
@@ -8233,16 +8234,16 @@
     </row>
     <row r="32" spans="1:27" ht="129.6" x14ac:dyDescent="0.25">
       <c r="A32" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B32" s="13" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C32" s="13" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D32" s="15" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E32" s="7"/>
       <c r="F32" s="7"/>
@@ -8270,16 +8271,16 @@
     </row>
     <row r="33" spans="1:27" ht="187.2" x14ac:dyDescent="0.25">
       <c r="A33" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="B33" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="C33" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="B33" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="C33" s="13" t="s">
+      <c r="D33" s="15" t="s">
         <v>144</v>
-      </c>
-      <c r="D33" s="15" t="s">
-        <v>145</v>
       </c>
       <c r="E33" s="7"/>
       <c r="F33" s="7"/>
@@ -8310,13 +8311,13 @@
         <v>11</v>
       </c>
       <c r="B34" s="13" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D34" s="15" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E34" s="7"/>
       <c r="F34" s="7"/>
@@ -8347,13 +8348,13 @@
         <v>11</v>
       </c>
       <c r="B35" s="13" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C35" s="13" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D35" s="15" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E35" s="7"/>
       <c r="F35" s="7"/>
@@ -8384,13 +8385,13 @@
         <v>12</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C36" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="D36" s="15" t="s">
         <v>148</v>
-      </c>
-      <c r="D36" s="15" t="s">
-        <v>149</v>
       </c>
       <c r="E36" s="7"/>
       <c r="F36" s="7"/>
@@ -8421,13 +8422,13 @@
         <v>12</v>
       </c>
       <c r="B37" s="13" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C37" s="13" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D37" s="15" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E37" s="7"/>
       <c r="F37" s="7"/>
@@ -8458,13 +8459,13 @@
         <v>12</v>
       </c>
       <c r="B38" s="13" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C38" s="13" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D38" s="15" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E38" s="7"/>
       <c r="F38" s="7"/>
@@ -36391,49 +36392,49 @@
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D3" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="D4" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
-    <hyperlink ref="D5" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
-    <hyperlink ref="D6" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
-    <hyperlink ref="D7" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
-    <hyperlink ref="D8" r:id="rId6" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
-    <hyperlink ref="D9" r:id="rId7" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
-    <hyperlink ref="D10" r:id="rId8" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
-    <hyperlink ref="D11" r:id="rId9" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
-    <hyperlink ref="D12" r:id="rId10" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
-    <hyperlink ref="D13" r:id="rId11" xr:uid="{00000000-0004-0000-0100-00000A000000}"/>
-    <hyperlink ref="D14" r:id="rId12" xr:uid="{00000000-0004-0000-0100-00000B000000}"/>
-    <hyperlink ref="D15" r:id="rId13" xr:uid="{00000000-0004-0000-0100-00000C000000}"/>
-    <hyperlink ref="D16" r:id="rId14" xr:uid="{00000000-0004-0000-0100-00000D000000}"/>
-    <hyperlink ref="D17" r:id="rId15" xr:uid="{00000000-0004-0000-0100-00000E000000}"/>
-    <hyperlink ref="D18" r:id="rId16" xr:uid="{00000000-0004-0000-0100-00000F000000}"/>
-    <hyperlink ref="D19" r:id="rId17" xr:uid="{00000000-0004-0000-0100-000010000000}"/>
-    <hyperlink ref="D20" r:id="rId18" xr:uid="{00000000-0004-0000-0100-000011000000}"/>
-    <hyperlink ref="D21" r:id="rId19" xr:uid="{00000000-0004-0000-0100-000012000000}"/>
-    <hyperlink ref="D22" r:id="rId20" xr:uid="{00000000-0004-0000-0100-000013000000}"/>
-    <hyperlink ref="D23" r:id="rId21" xr:uid="{00000000-0004-0000-0100-000014000000}"/>
-    <hyperlink ref="D24" r:id="rId22" xr:uid="{00000000-0004-0000-0100-000015000000}"/>
-    <hyperlink ref="D25" r:id="rId23" xr:uid="{00000000-0004-0000-0100-000016000000}"/>
-    <hyperlink ref="D26" r:id="rId24" xr:uid="{00000000-0004-0000-0100-000017000000}"/>
-    <hyperlink ref="D27" r:id="rId25" xr:uid="{00000000-0004-0000-0100-000018000000}"/>
-    <hyperlink ref="D28" r:id="rId26" xr:uid="{00000000-0004-0000-0100-000019000000}"/>
-    <hyperlink ref="D29" r:id="rId27" xr:uid="{00000000-0004-0000-0100-00001A000000}"/>
-    <hyperlink ref="D30" r:id="rId28" xr:uid="{00000000-0004-0000-0100-00001B000000}"/>
-    <hyperlink ref="D31" r:id="rId29" xr:uid="{00000000-0004-0000-0100-00001C000000}"/>
-    <hyperlink ref="D32" r:id="rId30" xr:uid="{00000000-0004-0000-0100-00001D000000}"/>
-    <hyperlink ref="D33" r:id="rId31" xr:uid="{00000000-0004-0000-0100-00001E000000}"/>
-    <hyperlink ref="D34" r:id="rId32" xr:uid="{00000000-0004-0000-0100-00001F000000}"/>
-    <hyperlink ref="D35" r:id="rId33" xr:uid="{00000000-0004-0000-0100-000020000000}"/>
-    <hyperlink ref="D36" r:id="rId34" xr:uid="{00000000-0004-0000-0100-000021000000}"/>
-    <hyperlink ref="D37" r:id="rId35" xr:uid="{00000000-0004-0000-0100-000022000000}"/>
-    <hyperlink ref="D38" r:id="rId36" xr:uid="{00000000-0004-0000-0100-000023000000}"/>
+    <hyperlink ref="D3" r:id="rId1"/>
+    <hyperlink ref="D4" r:id="rId2"/>
+    <hyperlink ref="D5" r:id="rId3"/>
+    <hyperlink ref="D6" r:id="rId4"/>
+    <hyperlink ref="D7" r:id="rId5"/>
+    <hyperlink ref="D8" r:id="rId6"/>
+    <hyperlink ref="D9" r:id="rId7"/>
+    <hyperlink ref="D10" r:id="rId8"/>
+    <hyperlink ref="D11" r:id="rId9"/>
+    <hyperlink ref="D12" r:id="rId10"/>
+    <hyperlink ref="D13" r:id="rId11"/>
+    <hyperlink ref="D14" r:id="rId12"/>
+    <hyperlink ref="D15" r:id="rId13"/>
+    <hyperlink ref="D16" r:id="rId14"/>
+    <hyperlink ref="D17" r:id="rId15"/>
+    <hyperlink ref="D18" r:id="rId16"/>
+    <hyperlink ref="D19" r:id="rId17"/>
+    <hyperlink ref="D20" r:id="rId18"/>
+    <hyperlink ref="D21" r:id="rId19"/>
+    <hyperlink ref="D22" r:id="rId20"/>
+    <hyperlink ref="D23" r:id="rId21"/>
+    <hyperlink ref="D24" r:id="rId22"/>
+    <hyperlink ref="D25" r:id="rId23"/>
+    <hyperlink ref="D26" r:id="rId24"/>
+    <hyperlink ref="D27" r:id="rId25"/>
+    <hyperlink ref="D28" r:id="rId26"/>
+    <hyperlink ref="D29" r:id="rId27"/>
+    <hyperlink ref="D30" r:id="rId28"/>
+    <hyperlink ref="D31" r:id="rId29"/>
+    <hyperlink ref="D32" r:id="rId30"/>
+    <hyperlink ref="D33" r:id="rId31"/>
+    <hyperlink ref="D34" r:id="rId32"/>
+    <hyperlink ref="D35" r:id="rId33"/>
+    <hyperlink ref="D36" r:id="rId34"/>
+    <hyperlink ref="D37" r:id="rId35"/>
+    <hyperlink ref="D38" r:id="rId36"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -36452,338 +36453,338 @@
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="18" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="18" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="18" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="18" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="18" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="18" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="18" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="18" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="18" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="18" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="18" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="18" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="18" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="18" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="18" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B20" s="18" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="18" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B21" s="18" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="18" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="18" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B23" s="18" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="18" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B24" s="18" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="18" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B25" s="18" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="18" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B26" s="18" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="18" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B27" s="18" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A28" s="18" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B28" s="18" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A29" s="18" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B29" s="18" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A30" s="18" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B30" s="18" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A31" s="18" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B31" s="18" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A32" s="18" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B32" s="18" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A33" s="18" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B33" s="18" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A34" s="18" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B34" s="18" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A35" s="18" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B35" s="18" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A36" s="18" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B36" s="18" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A37" s="18" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B37" s="18" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A38" s="18" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B38" s="18" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A39" s="18" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B39" s="18" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A40" s="18" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B40" s="18" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A41" s="18" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B41" s="18" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A42" s="18" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B42" s="18" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
@@ -36791,7 +36792,7 @@
         <v>11</v>
       </c>
       <c r="B43" s="18" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
@@ -36799,15 +36800,15 @@
         <v>11</v>
       </c>
       <c r="B44" s="18" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A45" s="18" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B45" s="18" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
@@ -36815,7 +36816,7 @@
         <v>12</v>
       </c>
       <c r="B46" s="18" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
@@ -36823,7 +36824,7 @@
         <v>12</v>
       </c>
       <c r="B47" s="18" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
@@ -36831,7 +36832,7 @@
         <v>12</v>
       </c>
       <c r="B48" s="18" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
@@ -36839,7 +36840,7 @@
         <v>12</v>
       </c>
       <c r="B49" s="18" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="13.2" x14ac:dyDescent="0.25"/>
